--- a/table/source/SkinAsset.xlsx
+++ b/table/source/SkinAsset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>skin_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>skin_asset_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_002_skin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Art/Characters/Archer/Archer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Art/Characters/Archer/Necromancer.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_001_skin_asset_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_002_skin_asset_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_001_skin_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,17 +393,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,6 +438,28 @@
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
